--- a/va_facility_data_2025-02-20/Fonda VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fonda%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Fonda VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Fonda%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra7b85b3f46d844c3b1b328bce69a4408"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R154f7c9341b6437397cd211f31c3b96d"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6477835f0ba144dda61229e35ac1a0c0"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2e2b88e603084387844dff2b8a777565"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Red7264bb03554cbf87c92444adf8ff4a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9269636d62c14e5a9d3b29226cb74e23"/>
   </x:sheets>
 </x:workbook>
 </file>
